--- a/delta2/lib_e/eid-lolwin.xlsx
+++ b/delta2/lib_e/eid-lolwin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_e/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0ED24D-EB07-EE41-9C7D-BA954792D7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6126CE-D66C-5343-9F05-5EDC779396D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{503C4303-42A1-DB4B-BD90-2FBAE899660F}"/>
   </bookViews>
@@ -27,10 +27,10 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="293" r:id="rId12"/>
-    <pivotCache cacheId="294" r:id="rId13"/>
-    <pivotCache cacheId="295" r:id="rId14"/>
-    <pivotCache cacheId="296" r:id="rId15"/>
+    <pivotCache cacheId="433" r:id="rId12"/>
+    <pivotCache cacheId="434" r:id="rId13"/>
+    <pivotCache cacheId="435" r:id="rId14"/>
+    <pivotCache cacheId="436" r:id="rId15"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -321,7 +321,7 @@
     <t>lolwin-eid0023</t>
   </si>
   <si>
-    <t>account</t>
+    <t>process_account</t>
   </si>
 </sst>
 </file>
@@ -854,7 +854,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CD651AB4-6668-E04C-AE05-A469DFE9C74D}" name="PivotTable1" cacheId="296" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CD651AB4-6668-E04C-AE05-A469DFE9C74D}" name="PivotTable1" cacheId="436" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField dataField="1" showAll="0"/>
@@ -932,7 +932,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4823DE75-AE98-E44F-BAB0-EBEF926044F6}" name="PivotTable2" cacheId="295" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4823DE75-AE98-E44F-BAB0-EBEF926044F6}" name="PivotTable2" cacheId="435" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField dataField="1" showAll="0"/>
@@ -997,7 +997,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{521E2462-842F-E848-A822-99B1A4557465}" name="PivotTable3" cacheId="294" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{521E2462-842F-E848-A822-99B1A4557465}" name="PivotTable3" cacheId="434" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField dataField="1" showAll="0"/>
@@ -1064,7 +1064,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{672A2247-37C7-B146-8C14-B1A4D372E94E}" name="PivotTable4" cacheId="293" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{672A2247-37C7-B146-8C14-B1A4D372E94E}" name="PivotTable4" cacheId="433" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField dataField="1" showAll="0"/>
@@ -1150,7 +1150,7 @@
     <tableColumn id="9" xr3:uid="{77731B4F-413A-9A48-9E34-761BA28F57CC}" name="initiating_process_name"/>
     <tableColumn id="10" xr3:uid="{D14102FB-89EB-6E41-B3EA-523646DB8A53}" name="process_path"/>
     <tableColumn id="11" xr3:uid="{D06C5568-EEDD-0B40-B52A-8462826FD229}" name="initiating_process_path" dataDxfId="16"/>
-    <tableColumn id="12" xr3:uid="{B696AE98-F833-4348-8A2A-083681C93892}" name="account"/>
+    <tableColumn id="12" xr3:uid="{B696AE98-F833-4348-8A2A-083681C93892}" name="process_account"/>
     <tableColumn id="13" xr3:uid="{DEC979B5-A396-F945-A221-01278C4EA968}" name="object"/>
     <tableColumn id="14" xr3:uid="{768D574A-4DC6-E84B-8CD2-121E544083BD}" name="ns_meta" dataDxfId="15"/>
   </tableColumns>
@@ -1588,9 +1588,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9549A292-5E18-1D44-9D7A-060851331C4E}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
